--- a/latest/taxonomic_assignments/Samples_with_no_results.xlsx
+++ b/latest/taxonomic_assignments/Samples_with_no_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>18S</t>
   </si>
@@ -34,45 +34,6 @@
   </si>
   <si>
     <t>ARMS_Gdynia_GDY1_20180813_20191029_SF38_DMSO</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_20190612_20191011_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_20190612_20191011_SF</t>
-  </si>
-  <si>
-    <t>ARMS_Gdynia_GDY1_20190619_20191029_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Getxo_G2_20190624_20191016_MF100</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_20190612_20200210_MF90</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_20190612_20200618_MF90</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_20190612_20200618_SF</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_2UBPC_20190924_20201211_SF</t>
-  </si>
-  <si>
-    <t>ARMS_Roscoff_BasBloS3_20190612_20200529_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Svalbard_S1_20180706_20190806_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Laesoe1_20190819_20200811_SF40</t>
-  </si>
-  <si>
-    <t>ARMS_Laesoe2_20190819_20200811_MF100</t>
-  </si>
-  <si>
-    <t>ARMS_Laesoe2_20190819_20200811_SF40</t>
   </si>
   <si>
     <t>ARMS_GulfOfPiran_Fornace_20180815_20181118_SF_ETOH_r1</t>
@@ -461,8 +422,8 @@
   </sheetPr>
   <dimension ref="A1:S944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -604,13 +565,13 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -634,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>3</v>
@@ -646,30 +607,30 @@
         <v>3</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -679,26 +640,26 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -708,7 +669,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -716,17 +677,17 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -736,7 +697,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -744,7 +705,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R6" s="3"/>
     </row>
@@ -752,7 +713,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -768,7 +729,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="R7" s="3"/>
     </row>
@@ -789,7 +750,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="R8" s="3"/>
     </row>
@@ -810,7 +771,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R9" s="3"/>
     </row>
@@ -830,18 +791,12 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <f>A11&amp;"_r1"</f>
-        <v>ARMS_Crete_1HERP_20190612_20191011_MF500_r1</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -857,18 +812,12 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="str">
-        <f t="shared" ref="B12:B23" si="0">A12&amp;"_r1"</f>
-        <v>ARMS_Crete_1HERP_20190612_20191011_SF_r1</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -884,18 +833,12 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Crete_1HERP_20190612_20200210_MF90_r1</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -911,18 +854,12 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Crete_1HERP_20190612_20200618_MF90_r1</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="C14" s="6"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -938,18 +875,12 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Crete_1HERP_20190612_20200618_SF_r1</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="C15" s="6"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -965,18 +896,12 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Crete_2UBPC_20190924_20201211_SF_r1</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -995,13 +920,7 @@
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Gdynia_GDY1_20190619_20191029_MF500_r1</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1020,13 +939,7 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Getxo_G2_20190624_20191016_MF100_r1</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1044,13 +957,7 @@
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Laesoe1_20190819_20200811_SF40_r1</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1069,13 +976,7 @@
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Laesoe2_20190819_20200811_MF100_r1</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="C20" s="6"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1094,13 +995,7 @@
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Laesoe2_20190819_20200811_SF40_r1</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="C21" s="6"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1119,13 +1014,7 @@
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Roscoff_BasBloS3_20190612_20200529_MF500_r1</v>
-      </c>
+      <c r="A22" s="3"/>
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1144,13 +1033,7 @@
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Svalbard_S1_20180706_20190806_MF500_r1</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="C23" s="6"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
